--- a/machine_df.xlsx
+++ b/machine_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:I1"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Resource</t>
+          <t>ResourceName</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ResourceName</t>
+          <t>StateName</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>timeIn</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>StateName</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Entity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Store</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>timeIn</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>timeOut</t>
         </is>
